--- a/Code/Results/Cases/Case_5_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.94410512929942</v>
+        <v>23.51647972924624</v>
       </c>
       <c r="C2">
-        <v>22.07905646407247</v>
+        <v>16.07267116366772</v>
       </c>
       <c r="D2">
-        <v>2.93061255547522</v>
+        <v>6.096773559099828</v>
       </c>
       <c r="E2">
-        <v>8.798879310483727</v>
+        <v>12.32158857521578</v>
       </c>
       <c r="F2">
-        <v>45.42248121709817</v>
+        <v>48.68540974036375</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.851148987226987</v>
+        <v>10.44424916278694</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.9930095736561</v>
+        <v>19.69065503691025</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>26.84978399714354</v>
+        <v>23.0145074299656</v>
       </c>
       <c r="C3">
-        <v>20.46281400581131</v>
+        <v>15.60482678393161</v>
       </c>
       <c r="D3">
-        <v>2.875285129721621</v>
+        <v>6.101291582118657</v>
       </c>
       <c r="E3">
-        <v>8.465892182193899</v>
+        <v>12.3072696705451</v>
       </c>
       <c r="F3">
-        <v>43.28129521247615</v>
+        <v>48.38303298373083</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.708533765180105</v>
+        <v>10.45396233582858</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.24806844806846</v>
+        <v>19.75688350268317</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>25.61450778032273</v>
+        <v>22.70867302754717</v>
       </c>
       <c r="C4">
-        <v>19.4284298532582</v>
+        <v>15.31605601974642</v>
       </c>
       <c r="D4">
-        <v>2.841582744280632</v>
+        <v>6.104604796827453</v>
       </c>
       <c r="E4">
-        <v>8.263368399295519</v>
+        <v>12.30116094845537</v>
       </c>
       <c r="F4">
-        <v>41.97839438875545</v>
+        <v>48.21136809616085</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.62597583889874</v>
+        <v>10.46192875252664</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.40889015198128</v>
+        <v>19.79957821313474</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>25.10119191228883</v>
+        <v>22.58483208960049</v>
       </c>
       <c r="C5">
-        <v>19.00475117415284</v>
+        <v>15.1982017218248</v>
       </c>
       <c r="D5">
-        <v>2.827925711589121</v>
+        <v>6.106091166166886</v>
       </c>
       <c r="E5">
-        <v>8.181372046507629</v>
+        <v>12.29934718394972</v>
       </c>
       <c r="F5">
-        <v>41.45060901909458</v>
+        <v>48.14497429615949</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.593551037409714</v>
+        <v>10.46567755428539</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.47547132508846</v>
+        <v>19.81748732873605</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.01534111576471</v>
+        <v>22.56432167178715</v>
       </c>
       <c r="C6">
-        <v>18.93545473327344</v>
+        <v>15.17862747146446</v>
       </c>
       <c r="D6">
-        <v>2.825662919364908</v>
+        <v>6.106346221854107</v>
       </c>
       <c r="E6">
-        <v>8.167790532639051</v>
+        <v>12.29908683065355</v>
       </c>
       <c r="F6">
-        <v>41.36316929360749</v>
+        <v>48.13416582303385</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.588239354978895</v>
+        <v>10.46633034969076</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.48658989903188</v>
+        <v>19.82049197287153</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>25.60762632908571</v>
+        <v>22.70699941662847</v>
       </c>
       <c r="C7">
-        <v>19.42264340994428</v>
+        <v>15.31446704082626</v>
       </c>
       <c r="D7">
-        <v>2.841398235783275</v>
+        <v>6.104624290180243</v>
       </c>
       <c r="E7">
-        <v>8.262260332573963</v>
+        <v>12.30113375110285</v>
       </c>
       <c r="F7">
-        <v>41.97126336403723</v>
+        <v>48.21045821734291</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.625533666262351</v>
+        <v>10.46197727745137</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.4097838719174</v>
+        <v>19.79981767375295</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.23303594329591</v>
+        <v>23.34301977724232</v>
       </c>
       <c r="C8">
-        <v>21.53033234459904</v>
+        <v>15.91179058953543</v>
       </c>
       <c r="D8">
-        <v>2.911484989996337</v>
+        <v>6.098219861105689</v>
       </c>
       <c r="E8">
-        <v>8.683688228878902</v>
+        <v>12.31609519766948</v>
       </c>
       <c r="F8">
-        <v>44.68182504898851</v>
+        <v>48.57827243357139</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.800909763557601</v>
+        <v>10.44718201107494</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.08006784720698</v>
+        <v>19.71306935240536</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>33.17415005893488</v>
+        <v>24.60090203205927</v>
       </c>
       <c r="C9">
-        <v>25.34403662292431</v>
+        <v>17.06279902722078</v>
       </c>
       <c r="D9">
-        <v>3.050743609873361</v>
+        <v>6.089910612619495</v>
       </c>
       <c r="E9">
-        <v>9.524308110277918</v>
+        <v>12.36666690305398</v>
       </c>
       <c r="F9">
-        <v>50.09046819119132</v>
+        <v>49.40847033938044</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.18670045685073</v>
+        <v>10.43410329698465</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.46808875062185</v>
+        <v>19.55905582560059</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>36.57965059203001</v>
+        <v>25.52091696912129</v>
       </c>
       <c r="C10">
-        <v>27.97524939589113</v>
+        <v>17.88574570553721</v>
       </c>
       <c r="D10">
-        <v>3.153934590832141</v>
+        <v>6.086359240176684</v>
       </c>
       <c r="E10">
-        <v>10.15088781845167</v>
+        <v>12.41666295741432</v>
       </c>
       <c r="F10">
-        <v>54.13503966333499</v>
+        <v>50.08155185634322</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.499330078623635</v>
+        <v>10.43426526414422</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.04222654518465</v>
+        <v>19.45570354246039</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>38.08824767683585</v>
+        <v>25.93644470233327</v>
       </c>
       <c r="C11">
-        <v>29.14211239021758</v>
+        <v>18.2532840735699</v>
       </c>
       <c r="D11">
-        <v>3.201090497744827</v>
+        <v>6.085290033697714</v>
       </c>
       <c r="E11">
-        <v>10.43858224558879</v>
+        <v>12.44216427130272</v>
       </c>
       <c r="F11">
-        <v>55.99826139343234</v>
+        <v>50.40065492126667</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.648980040928074</v>
+        <v>10.43646987167375</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.85468565229079</v>
+        <v>19.41081215462908</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>38.65453617618769</v>
+        <v>26.09320034133984</v>
       </c>
       <c r="C12">
-        <v>29.58036957069643</v>
+        <v>18.39133915044106</v>
       </c>
       <c r="D12">
-        <v>3.218985821901666</v>
+        <v>6.08496302451061</v>
       </c>
       <c r="E12">
-        <v>10.54801634499793</v>
+        <v>12.45221404385866</v>
       </c>
       <c r="F12">
-        <v>56.70821382884491</v>
+        <v>50.52327279289811</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.706836981181134</v>
+        <v>10.43761158056322</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.78469147654161</v>
+        <v>19.39411844397333</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>38.53278203471962</v>
+        <v>26.05946923166853</v>
       </c>
       <c r="C13">
-        <v>29.48613051308005</v>
+        <v>18.36165862133893</v>
       </c>
       <c r="D13">
-        <v>3.215129848269333</v>
+        <v>6.085029999223004</v>
       </c>
       <c r="E13">
-        <v>10.52442370418444</v>
+        <v>12.45003222986595</v>
       </c>
       <c r="F13">
-        <v>56.55509713585213</v>
+        <v>50.49678691627503</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.694321405934265</v>
+        <v>10.4373520394863</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.79971781061291</v>
+        <v>19.39770013340602</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>38.13493096133318</v>
+        <v>25.94935393400155</v>
       </c>
       <c r="C14">
-        <v>29.17823575479554</v>
+        <v>18.26466523656779</v>
       </c>
       <c r="D14">
-        <v>3.202561921688409</v>
+        <v>6.085261573653336</v>
       </c>
       <c r="E14">
-        <v>10.44757483579963</v>
+        <v>12.44298321850112</v>
       </c>
       <c r="F14">
-        <v>56.05657436652032</v>
+        <v>50.41070753745556</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.653715372380862</v>
+        <v>10.43655764858526</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.84890574136843</v>
+        <v>19.4094326250778</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>37.89061482725177</v>
+        <v>25.88182281670311</v>
       </c>
       <c r="C15">
-        <v>28.98919518985791</v>
+        <v>18.20510365016587</v>
       </c>
       <c r="D15">
-        <v>3.194869034946102</v>
+        <v>6.085413540981613</v>
       </c>
       <c r="E15">
-        <v>10.40057057478636</v>
+        <v>12.43871655829137</v>
       </c>
       <c r="F15">
-        <v>55.75182355788318</v>
+        <v>50.35821095794891</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.62900172711091</v>
+        <v>10.4361110355576</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.8791728305694</v>
+        <v>19.41665893213049</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>36.48031249008262</v>
+        <v>25.4936866805133</v>
       </c>
       <c r="C16">
-        <v>27.89844487942454</v>
+        <v>17.86157640403691</v>
       </c>
       <c r="D16">
-        <v>3.150857666583268</v>
+        <v>6.086440050457778</v>
       </c>
       <c r="E16">
-        <v>10.13214801011928</v>
+        <v>12.41505158465917</v>
       </c>
       <c r="F16">
-        <v>54.01382366587787</v>
+        <v>50.06095113938623</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.48970917526402</v>
+        <v>10.43416410940215</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.05461769059635</v>
+        <v>19.45868006177298</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>35.6052968073376</v>
+        <v>25.25469061114692</v>
       </c>
       <c r="C17">
-        <v>27.22206614515586</v>
+        <v>17.64898006997489</v>
       </c>
       <c r="D17">
-        <v>3.123916547806958</v>
+        <v>6.087209223568594</v>
       </c>
       <c r="E17">
-        <v>9.96822325291653</v>
+        <v>12.40123782990418</v>
       </c>
       <c r="F17">
-        <v>52.95421952739095</v>
+        <v>49.88184644016667</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.406237203352954</v>
+        <v>10.43351588324456</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.163913423913</v>
+        <v>19.485002848527</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>35.09813100722329</v>
+        <v>25.1169540925607</v>
       </c>
       <c r="C18">
-        <v>26.83014835431826</v>
+        <v>17.52606559685909</v>
       </c>
       <c r="D18">
-        <v>3.108440084655071</v>
+        <v>6.087703096274421</v>
       </c>
       <c r="E18">
-        <v>9.874179433520721</v>
+        <v>12.39355235122115</v>
       </c>
       <c r="F18">
-        <v>52.34687721762386</v>
+        <v>49.78005063558193</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.358917354562839</v>
+        <v>10.43334359705199</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.22734936828344</v>
+        <v>19.50034293039594</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>34.92572379344787</v>
+        <v>25.0702773108722</v>
       </c>
       <c r="C19">
-        <v>26.696936998276</v>
+        <v>17.48434442296579</v>
       </c>
       <c r="D19">
-        <v>3.103203203926819</v>
+        <v>6.087879172969981</v>
       </c>
       <c r="E19">
-        <v>9.842376723537434</v>
+        <v>12.39099490791813</v>
       </c>
       <c r="F19">
-        <v>52.141578721745</v>
+        <v>49.74579621305494</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.343011192419971</v>
+        <v>10.43331969342211</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.24892255086405</v>
+        <v>19.50557114686009</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>35.69883965444723</v>
+        <v>25.28016156330072</v>
       </c>
       <c r="C20">
-        <v>27.29436140349303</v>
+        <v>17.67167807488969</v>
       </c>
       <c r="D20">
-        <v>3.126782435640049</v>
+        <v>6.087122022324404</v>
       </c>
       <c r="E20">
-        <v>9.985647708736103</v>
+        <v>12.40268146111002</v>
       </c>
       <c r="F20">
-        <v>53.06679102777886</v>
+        <v>49.90078666864937</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.415050650898368</v>
+        <v>10.43356412746944</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.15221868674806</v>
+        <v>19.48218005131834</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>38.25191707798731</v>
+        <v>25.98171490233227</v>
       </c>
       <c r="C21">
-        <v>29.26876338885586</v>
+        <v>18.29318611028437</v>
       </c>
       <c r="D21">
-        <v>3.206252292942301</v>
+        <v>6.08519144659313</v>
       </c>
       <c r="E21">
-        <v>10.47013280139273</v>
+        <v>12.4450430496328</v>
       </c>
       <c r="F21">
-        <v>56.20287334166605</v>
+        <v>50.43594344694665</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.665609014649662</v>
+        <v>10.43678264925827</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.83442897413267</v>
+        <v>19.40597820949625</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.89197844767644</v>
+        <v>26.43667881039369</v>
       </c>
       <c r="C22">
-        <v>30.5385623673886</v>
+        <v>18.69277101539927</v>
       </c>
       <c r="D22">
-        <v>3.258422510855137</v>
+        <v>6.084383302320561</v>
       </c>
       <c r="E22">
-        <v>10.78971716537112</v>
+        <v>12.4750173866305</v>
       </c>
       <c r="F22">
-        <v>58.2788366542996</v>
+        <v>50.79603903029432</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.836365382066515</v>
+        <v>10.44067491858678</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.63279985620115</v>
+        <v>19.3579578101232</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>39.01892700637037</v>
+        <v>26.1942321412623</v>
       </c>
       <c r="C23">
-        <v>29.86245299819867</v>
+        <v>18.48015309726509</v>
       </c>
       <c r="D23">
-        <v>3.23055286333058</v>
+        <v>6.084773348114202</v>
       </c>
       <c r="E23">
-        <v>10.61883080107115</v>
+        <v>12.45881141894158</v>
       </c>
       <c r="F23">
-        <v>57.16800295431372</v>
+        <v>50.60292948250871</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.744541141266622</v>
+        <v>10.43843376107116</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.73980085881264</v>
+        <v>19.38342406181032</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>35.65656178920187</v>
+        <v>25.26864717504165</v>
       </c>
       <c r="C24">
-        <v>27.26168629599792</v>
+        <v>17.66141844513803</v>
       </c>
       <c r="D24">
-        <v>3.125486729748555</v>
+        <v>6.087161285030521</v>
       </c>
       <c r="E24">
-        <v>9.977769500695688</v>
+        <v>12.40202799706599</v>
       </c>
       <c r="F24">
-        <v>53.01589179995321</v>
+        <v>49.89222012923322</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.411064015037234</v>
+        <v>10.43354169212808</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.15750401706553</v>
+        <v>19.48345559393972</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31.87926749269679</v>
+        <v>24.26059631667611</v>
       </c>
       <c r="C25">
-        <v>24.344326721687</v>
+        <v>16.75471240777014</v>
       </c>
       <c r="D25">
-        <v>3.012910250205659</v>
+        <v>6.091707345534112</v>
       </c>
       <c r="E25">
-        <v>9.29544407539702</v>
+        <v>12.35072157389215</v>
       </c>
       <c r="F25">
-        <v>48.61663312635749</v>
+        <v>49.17253397481906</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.077515549091161</v>
+        <v>10.43592908034517</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.62973333473707</v>
+        <v>19.59899853923191</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_103/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_103/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.51647972924624</v>
+        <v>28.94410512929949</v>
       </c>
       <c r="C2">
-        <v>16.07267116366772</v>
+        <v>22.07905646407249</v>
       </c>
       <c r="D2">
-        <v>6.096773559099828</v>
+        <v>2.930612555475183</v>
       </c>
       <c r="E2">
-        <v>12.32158857521578</v>
+        <v>8.798879310483724</v>
       </c>
       <c r="F2">
-        <v>48.68540974036375</v>
+        <v>45.422481217098</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.44424916278694</v>
+        <v>6.851148987226988</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.69065503691025</v>
+        <v>12.99300957365594</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,25 +462,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.0145074299656</v>
+        <v>26.84978399714357</v>
       </c>
       <c r="C3">
-        <v>15.60482678393161</v>
+        <v>20.46281400581148</v>
       </c>
       <c r="D3">
-        <v>6.101291582118657</v>
+        <v>2.875285129721636</v>
       </c>
       <c r="E3">
-        <v>12.3072696705451</v>
+        <v>8.465892182193921</v>
       </c>
       <c r="F3">
-        <v>48.38303298373083</v>
+        <v>43.28129521247593</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.45396233582858</v>
+        <v>6.708533765180112</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.75688350268317</v>
+        <v>13.24806844806828</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,25 +503,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.70867302754717</v>
+        <v>25.61450778032274</v>
       </c>
       <c r="C4">
-        <v>15.31605601974642</v>
+        <v>19.42842985325816</v>
       </c>
       <c r="D4">
-        <v>6.104604796827453</v>
+        <v>2.841582744280522</v>
       </c>
       <c r="E4">
-        <v>12.30116094845537</v>
+        <v>8.263368399295445</v>
       </c>
       <c r="F4">
-        <v>48.21136809616085</v>
+        <v>41.97839438875551</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.46192875252664</v>
+        <v>6.625975838898741</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.79957821313474</v>
+        <v>13.40889015198137</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,25 +544,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.58483208960049</v>
+        <v>25.10119191228883</v>
       </c>
       <c r="C5">
-        <v>15.1982017218248</v>
+        <v>19.00475117415281</v>
       </c>
       <c r="D5">
-        <v>6.106091166166886</v>
+        <v>2.827925711588966</v>
       </c>
       <c r="E5">
-        <v>12.29934718394972</v>
+        <v>8.181372046507642</v>
       </c>
       <c r="F5">
-        <v>48.14497429615949</v>
+        <v>41.45060901909468</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.46567755428539</v>
+        <v>6.593551037409787</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.81748732873605</v>
+        <v>13.47547132508858</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.56432167178715</v>
+        <v>25.0153411157647</v>
       </c>
       <c r="C6">
-        <v>15.17862747146446</v>
+        <v>18.93545473327347</v>
       </c>
       <c r="D6">
-        <v>6.106346221854107</v>
+        <v>2.825662919364862</v>
       </c>
       <c r="E6">
-        <v>12.29908683065355</v>
+        <v>8.167790532639039</v>
       </c>
       <c r="F6">
-        <v>48.13416582303385</v>
+        <v>41.36316929360728</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.46633034969076</v>
+        <v>6.588239354978858</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.82049197287153</v>
+        <v>13.48658989903182</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,25 +626,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.70699941662847</v>
+        <v>25.60762632908567</v>
       </c>
       <c r="C7">
-        <v>15.31446704082626</v>
+        <v>19.42264340994421</v>
       </c>
       <c r="D7">
-        <v>6.104624290180243</v>
+        <v>2.8413982357835</v>
       </c>
       <c r="E7">
-        <v>12.30113375110285</v>
+        <v>8.262260332573996</v>
       </c>
       <c r="F7">
-        <v>48.21045821734291</v>
+        <v>41.97126336403728</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.46197727745137</v>
+        <v>6.625533666262299</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.79981767375295</v>
+        <v>13.40978387191739</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,25 +667,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.34301977724232</v>
+        <v>28.23303594329573</v>
       </c>
       <c r="C8">
-        <v>15.91179058953543</v>
+        <v>21.53033234459877</v>
       </c>
       <c r="D8">
-        <v>6.098219861105689</v>
+        <v>2.911484989996084</v>
       </c>
       <c r="E8">
-        <v>12.31609519766948</v>
+        <v>8.683688228878852</v>
       </c>
       <c r="F8">
-        <v>48.57827243357139</v>
+        <v>44.68182504898856</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.44718201107494</v>
+        <v>6.800909763557625</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.71306935240536</v>
+        <v>13.08006784720714</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,25 +708,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.60090203205927</v>
+        <v>33.17415005893486</v>
       </c>
       <c r="C9">
-        <v>17.06279902722078</v>
+        <v>25.34403662292426</v>
       </c>
       <c r="D9">
-        <v>6.089910612619495</v>
+        <v>3.050743609873286</v>
       </c>
       <c r="E9">
-        <v>12.36666690305398</v>
+        <v>9.524308110277948</v>
       </c>
       <c r="F9">
-        <v>49.40847033938044</v>
+        <v>50.09046819119124</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43410329698465</v>
+        <v>7.186700456850784</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.55905582560059</v>
+        <v>12.46808875062186</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,25 +749,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.52091696912129</v>
+        <v>36.57965059202987</v>
       </c>
       <c r="C10">
-        <v>17.88574570553721</v>
+        <v>27.97524939589109</v>
       </c>
       <c r="D10">
-        <v>6.086359240176684</v>
+        <v>3.153934590832118</v>
       </c>
       <c r="E10">
-        <v>12.41666295741432</v>
+        <v>10.15088781845167</v>
       </c>
       <c r="F10">
-        <v>50.08155185634322</v>
+        <v>54.13503966333497</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.43426526414422</v>
+        <v>7.499330078623672</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.45570354246039</v>
+        <v>12.04222654518477</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.93644470233327</v>
+        <v>38.08824767683588</v>
       </c>
       <c r="C11">
-        <v>18.2532840735699</v>
+        <v>29.14211239021758</v>
       </c>
       <c r="D11">
-        <v>6.085290033697714</v>
+        <v>3.201090497744853</v>
       </c>
       <c r="E11">
-        <v>12.44216427130272</v>
+        <v>10.43858224558878</v>
       </c>
       <c r="F11">
-        <v>50.40065492126667</v>
+        <v>55.99826139343249</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.43646987167375</v>
+        <v>7.648980040928076</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.41081215462908</v>
+        <v>11.85468565229079</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,25 +831,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.09320034133984</v>
+        <v>38.65453617618773</v>
       </c>
       <c r="C12">
-        <v>18.39133915044106</v>
+        <v>29.58036957069642</v>
       </c>
       <c r="D12">
-        <v>6.08496302451061</v>
+        <v>3.218985821901782</v>
       </c>
       <c r="E12">
-        <v>12.45221404385866</v>
+        <v>10.54801634499795</v>
       </c>
       <c r="F12">
-        <v>50.52327279289811</v>
+        <v>56.70821382884498</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.43761158056322</v>
+        <v>7.706836981181127</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.39411844397333</v>
+        <v>11.78469147654159</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,25 +872,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.05946923166853</v>
+        <v>38.53278203471965</v>
       </c>
       <c r="C13">
-        <v>18.36165862133893</v>
+        <v>29.48613051308016</v>
       </c>
       <c r="D13">
-        <v>6.085029999223004</v>
+        <v>3.215129848269242</v>
       </c>
       <c r="E13">
-        <v>12.45003222986595</v>
+        <v>10.52442370418441</v>
       </c>
       <c r="F13">
-        <v>50.49678691627503</v>
+        <v>56.55509713585212</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.4373520394863</v>
+        <v>7.694321405934256</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.39770013340602</v>
+        <v>11.79971781061287</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,25 +913,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.94935393400155</v>
+        <v>38.13493096133329</v>
       </c>
       <c r="C14">
-        <v>18.26466523656779</v>
+        <v>29.17823575479564</v>
       </c>
       <c r="D14">
-        <v>6.085261573653336</v>
+        <v>3.202561921688454</v>
       </c>
       <c r="E14">
-        <v>12.44298321850112</v>
+        <v>10.44757483579962</v>
       </c>
       <c r="F14">
-        <v>50.41070753745556</v>
+        <v>56.05657436652041</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.43655764858526</v>
+        <v>7.653715372380837</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.4094326250778</v>
+        <v>11.84890574136833</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,25 +954,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.88182281670311</v>
+        <v>37.8906148272518</v>
       </c>
       <c r="C15">
-        <v>18.20510365016587</v>
+        <v>28.98919518985784</v>
       </c>
       <c r="D15">
-        <v>6.085413540981613</v>
+        <v>3.194869034946214</v>
       </c>
       <c r="E15">
-        <v>12.43871655829137</v>
+        <v>10.40057057478638</v>
       </c>
       <c r="F15">
-        <v>50.35821095794891</v>
+        <v>55.75182355788313</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.4361110355576</v>
+        <v>7.629001727110928</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.41665893213049</v>
+        <v>11.87917283056936</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,25 +995,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.4936866805133</v>
+        <v>36.4803124900827</v>
       </c>
       <c r="C16">
-        <v>17.86157640403691</v>
+        <v>27.89844487942446</v>
       </c>
       <c r="D16">
-        <v>6.086440050457778</v>
+        <v>3.150857666583268</v>
       </c>
       <c r="E16">
-        <v>12.41505158465917</v>
+        <v>10.13214801011929</v>
       </c>
       <c r="F16">
-        <v>50.06095113938623</v>
+        <v>54.01382366587795</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.43416410940215</v>
+        <v>7.489709175264057</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.45868006177298</v>
+        <v>12.0546176905963</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,25 +1036,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.25469061114692</v>
+        <v>35.60529680733758</v>
       </c>
       <c r="C17">
-        <v>17.64898006997489</v>
+        <v>27.2220661451558</v>
       </c>
       <c r="D17">
-        <v>6.087209223568594</v>
+        <v>3.123916547806851</v>
       </c>
       <c r="E17">
-        <v>12.40123782990418</v>
+        <v>9.968223252916491</v>
       </c>
       <c r="F17">
-        <v>49.88184644016667</v>
+        <v>52.95421952739095</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.43351588324456</v>
+        <v>7.406237203352929</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.485002848527</v>
+        <v>12.16391342391302</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,25 +1077,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.1169540925607</v>
+        <v>35.09813100722338</v>
       </c>
       <c r="C18">
-        <v>17.52606559685909</v>
+        <v>26.83014835431846</v>
       </c>
       <c r="D18">
-        <v>6.087703096274421</v>
+        <v>3.108440084655118</v>
       </c>
       <c r="E18">
-        <v>12.39355235122115</v>
+        <v>9.874179433520769</v>
       </c>
       <c r="F18">
-        <v>49.78005063558193</v>
+        <v>52.34687721762394</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.43334359705199</v>
+        <v>7.358917354562846</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.50034293039594</v>
+        <v>12.22734936828346</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,25 +1118,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.0702773108722</v>
+        <v>34.92572379344794</v>
       </c>
       <c r="C19">
-        <v>17.48434442296579</v>
+        <v>26.69693699827625</v>
       </c>
       <c r="D19">
-        <v>6.087879172969981</v>
+        <v>3.103203203926831</v>
       </c>
       <c r="E19">
-        <v>12.39099490791813</v>
+        <v>9.842376723537441</v>
       </c>
       <c r="F19">
-        <v>49.74579621305494</v>
+        <v>52.14157872174508</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.43331969342211</v>
+        <v>7.343011192419977</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.50557114686009</v>
+        <v>12.24892255086404</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,25 +1159,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.28016156330072</v>
+        <v>35.69883965444714</v>
       </c>
       <c r="C20">
-        <v>17.67167807488969</v>
+        <v>27.29436140349307</v>
       </c>
       <c r="D20">
-        <v>6.087122022324404</v>
+        <v>3.126782435640096</v>
       </c>
       <c r="E20">
-        <v>12.40268146111002</v>
+        <v>9.985647708736115</v>
       </c>
       <c r="F20">
-        <v>49.90078666864937</v>
+        <v>53.06679102777879</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.43356412746944</v>
+        <v>7.415050650898343</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.48218005131834</v>
+        <v>12.15221868674805</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,25 +1200,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.98171490233227</v>
+        <v>38.25191707798707</v>
       </c>
       <c r="C21">
-        <v>18.29318611028437</v>
+        <v>29.26876338885565</v>
       </c>
       <c r="D21">
-        <v>6.08519144659313</v>
+        <v>3.206252292942406</v>
       </c>
       <c r="E21">
-        <v>12.4450430496328</v>
+        <v>10.47013280139275</v>
       </c>
       <c r="F21">
-        <v>50.43594344694665</v>
+        <v>56.20287334166584</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.43678264925827</v>
+        <v>7.665609014649664</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.40597820949625</v>
+        <v>11.83442897413283</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.43667881039369</v>
+        <v>39.89197844767671</v>
       </c>
       <c r="C22">
-        <v>18.69277101539927</v>
+        <v>30.53856236738879</v>
       </c>
       <c r="D22">
-        <v>6.084383302320561</v>
+        <v>3.258422510855061</v>
       </c>
       <c r="E22">
-        <v>12.4750173866305</v>
+        <v>10.78971716537112</v>
       </c>
       <c r="F22">
-        <v>50.79603903029432</v>
+        <v>58.27883665429982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.44067491858678</v>
+        <v>7.836365382066536</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.3579578101232</v>
+        <v>11.63279985620098</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,25 +1282,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.1942321412623</v>
+        <v>39.01892700637052</v>
       </c>
       <c r="C23">
-        <v>18.48015309726509</v>
+        <v>29.86245299819877</v>
       </c>
       <c r="D23">
-        <v>6.084773348114202</v>
+        <v>3.230552863330515</v>
       </c>
       <c r="E23">
-        <v>12.45881141894158</v>
+        <v>10.61883080107116</v>
       </c>
       <c r="F23">
-        <v>50.60292948250871</v>
+        <v>57.16800295431381</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.43843376107116</v>
+        <v>7.744541141266621</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.38342406181032</v>
+        <v>11.73980085881253</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,25 +1323,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.26864717504165</v>
+        <v>35.65656178920195</v>
       </c>
       <c r="C24">
-        <v>17.66141844513803</v>
+        <v>27.26168629599795</v>
       </c>
       <c r="D24">
-        <v>6.087161285030521</v>
+        <v>3.125486729748473</v>
       </c>
       <c r="E24">
-        <v>12.40202799706599</v>
+        <v>9.977769500695679</v>
       </c>
       <c r="F24">
-        <v>49.89222012923322</v>
+        <v>53.0158917999532</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.43354169212808</v>
+        <v>7.411064015037241</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.48345559393972</v>
+        <v>12.15750401706547</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.26059631667611</v>
+        <v>31.87926749269684</v>
       </c>
       <c r="C25">
-        <v>16.75471240777014</v>
+        <v>24.34432672168696</v>
       </c>
       <c r="D25">
-        <v>6.091707345534112</v>
+        <v>3.012910250205499</v>
       </c>
       <c r="E25">
-        <v>12.35072157389215</v>
+        <v>9.295444075396976</v>
       </c>
       <c r="F25">
-        <v>49.17253397481906</v>
+        <v>48.61663312635748</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.43592908034517</v>
+        <v>7.077515549091175</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.59899853923191</v>
+        <v>12.62973333473708</v>
       </c>
       <c r="O25">
         <v>0</v>
